--- a/intervalos_ndt_7.65.xlsx
+++ b/intervalos_ndt_7.65.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsl_atual\simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740E4002-C94F-4F5B-8ABA-D1D8F1A91996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A72640C-6AF7-4C03-BA67-EDF7B5844EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{F3419C55-1066-4486-8782-759DF9273BDF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3419C55-1066-4486-8782-759DF9273BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="7.65 x 7.65" sheetId="5" r:id="rId1"/>
@@ -1555,7 +1555,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65.19</c:v>
+                  <c:v>65,19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8492,16 +8492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>392905</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8533,16 +8533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8574,16 +8574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8615,16 +8615,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>240505</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8656,16 +8656,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>302418</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>311943</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8992,7 +8992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4FB31-C037-48D2-934E-1FB80DE4CDA0}">
   <dimension ref="A2:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9501,7 +9501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93796860-76A4-4061-AEA6-06B78277E322}">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10495,7 +10495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7747BC58-7A05-4AFD-AFFF-668AA696D33C}">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
@@ -11403,7 +11403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1A77DB-ED1E-4FD8-912B-B7724CE6C6D1}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A90" sqref="A1:B90"/>
     </sheetView>
   </sheetViews>
@@ -12143,7 +12143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45111533-F0D8-4E2A-AC2C-0F519570E293}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
